--- a/data/raw_data_before_2020/2016/permits-issued-by-county-2016.xlsx
+++ b/data/raw_data_before_2020/2016/permits-issued-by-county-2016.xlsx
@@ -1,22 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\ESTUDOS DATA SCIENCE\ie-employment-permit\data\raw_data_before_2020\2016\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1810E084-B872-4ECD-8589-D58126E81A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="13395" windowHeight="7740"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PermitsbyCounty" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PermitsbyCounty!$A$1:$H$35</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Year</t>
   </si>
@@ -136,12 +156,18 @@
   </si>
   <si>
     <t>Wicklow</t>
+  </si>
+  <si>
+    <t>Obs</t>
+  </si>
+  <si>
+    <t>Country</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -167,7 +193,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -190,15 +216,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -208,6 +247,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -256,7 +298,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -289,9 +331,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -324,6 +383,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -499,11 +575,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +593,7 @@
     <col min="7" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,8 +615,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2016</v>
       </c>
@@ -561,7 +640,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -582,7 +661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -603,7 +682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -623,8 +702,9 @@
       <c r="G5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>10</v>
@@ -645,7 +725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -666,7 +746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>12</v>
@@ -687,7 +767,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>13</v>
@@ -707,8 +787,11 @@
       <c r="G9" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>14</v>
@@ -729,7 +812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>15</v>
@@ -749,8 +832,11 @@
       <c r="G11" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>16</v>
@@ -770,8 +856,11 @@
       <c r="G12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>17</v>
@@ -791,8 +880,11 @@
       <c r="G13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>18</v>
@@ -813,7 +905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>19</v>
@@ -834,7 +926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>20</v>
@@ -855,7 +947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>21</v>
@@ -876,7 +968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>22</v>
@@ -897,7 +989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>23</v>
@@ -918,7 +1010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>24</v>
@@ -939,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>25</v>
@@ -960,7 +1052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
         <v>26</v>
@@ -981,7 +1073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>27</v>
@@ -1002,7 +1094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
         <v>28</v>
@@ -1023,7 +1115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
         <v>29</v>
@@ -1044,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>30</v>
@@ -1065,7 +1157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>31</v>
@@ -1086,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>32</v>
@@ -1107,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
         <v>33</v>
@@ -1127,8 +1219,11 @@
       <c r="G29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
         <v>34</v>
@@ -1148,8 +1243,11 @@
       <c r="G30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
         <v>35</v>
@@ -1169,8 +1267,11 @@
       <c r="G31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
         <v>36</v>
@@ -1255,13 +1356,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H35" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1273,7 +1375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
